--- a/Economy_Data.xlsx
+++ b/Economy_Data.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="Questa_cartella_di_lavoro" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\forni\Desktop\Regression_project_2\Eco\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\forni\Desktop\Regression_project_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59CDF711-6912-4B9B-8C58-C7F65925D79C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65443E6B-3A4F-4CBA-AEF3-6EFBE221A865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00A63BB1-A379-4E9A-998A-D74144227C7A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00A63BB1-A379-4E9A-998A-D74144227C7A}"/>
   </bookViews>
   <sheets>
     <sheet name="cpi" sheetId="1" r:id="rId1"/>
     <sheet name="productivity_2015_100" sheetId="3" r:id="rId2"/>
-    <sheet name="turn" sheetId="4" r:id="rId3"/>
-    <sheet name="unemploy" sheetId="5" r:id="rId4"/>
+    <sheet name="Bund_10_Y" sheetId="6" r:id="rId3"/>
+    <sheet name="turn" sheetId="4" r:id="rId4"/>
+    <sheet name="unemploy" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,275 +40,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="129">
   <si>
     <t>DATE</t>
   </si>
   <si>
-    <t>0,8880</t>
-  </si>
-  <si>
-    <t>0,9460</t>
-  </si>
-  <si>
-    <t>0,8410</t>
-  </si>
-  <si>
-    <t>0,7020</t>
-  </si>
-  <si>
-    <t>0,5400</t>
-  </si>
-  <si>
-    <t>0,3130</t>
-  </si>
-  <si>
-    <t>0,3240</t>
-  </si>
-  <si>
-    <t>0,1850</t>
-  </si>
-  <si>
-    <t>0,3860</t>
-  </si>
-  <si>
-    <t>0,3640</t>
-  </si>
-  <si>
-    <t>0,4860</t>
-  </si>
-  <si>
-    <t>0,7700</t>
-  </si>
-  <si>
-    <t>0,6480</t>
-  </si>
-  <si>
-    <t>0,6540</t>
-  </si>
-  <si>
-    <t>0,7950</t>
-  </si>
-  <si>
-    <t>0,5900</t>
-  </si>
-  <si>
-    <t>0,5230</t>
-  </si>
-  <si>
-    <t>0,4370</t>
-  </si>
-  <si>
-    <t>0,4755</t>
-  </si>
-  <si>
-    <t>0,6346</t>
-  </si>
-  <si>
-    <t>0,3340</t>
-  </si>
-  <si>
-    <t>0,1080</t>
-  </si>
-  <si>
-    <t>0,1560</t>
-  </si>
-  <si>
-    <t>0,2820</t>
-  </si>
-  <si>
-    <t>0,1470</t>
-  </si>
-  <si>
-    <t>-0,1266</t>
-  </si>
-  <si>
-    <t>-0,1200</t>
-  </si>
-  <si>
-    <t>-0,0650</t>
-  </si>
-  <si>
-    <t>0,1630</t>
-  </si>
-  <si>
-    <t>0,2740</t>
-  </si>
-  <si>
-    <t>0,2080</t>
-  </si>
-  <si>
-    <t>0,3310</t>
-  </si>
-  <si>
-    <t>0,3110</t>
-  </si>
-  <si>
-    <t>0,4650</t>
-  </si>
-  <si>
-    <t>0,5330</t>
-  </si>
-  <si>
-    <t>0,3590</t>
-  </si>
-  <si>
-    <t>0,4640</t>
-  </si>
-  <si>
-    <t>0,3670</t>
-  </si>
-  <si>
-    <t>0,4270</t>
-  </si>
-  <si>
-    <t>0,6970</t>
-  </si>
-  <si>
-    <t>0,4930</t>
-  </si>
-  <si>
-    <t>0,5620</t>
-  </si>
-  <si>
-    <t>0,3400</t>
-  </si>
-  <si>
-    <t>0,3030</t>
-  </si>
-  <si>
-    <t>0,4450</t>
-  </si>
-  <si>
-    <t>0,4720</t>
-  </si>
-  <si>
-    <t>0,3150</t>
-  </si>
-  <si>
-    <t>0,2460</t>
-  </si>
-  <si>
-    <t>0,1490</t>
-  </si>
-  <si>
-    <t>0,1820</t>
-  </si>
-  <si>
-    <t>-0,0940</t>
-  </si>
-  <si>
-    <t>-0,0710</t>
-  </si>
-  <si>
-    <t>0,0130</t>
-  </si>
-  <si>
-    <t>-0,2030</t>
-  </si>
-  <si>
-    <t>-0,3280</t>
-  </si>
-  <si>
-    <t>-0,4420</t>
-  </si>
-  <si>
-    <t>-0,7030</t>
-  </si>
-  <si>
-    <t>-0,4340</t>
-  </si>
-  <si>
-    <t>-0,5720</t>
-  </si>
-  <si>
-    <t>-0,4030</t>
-  </si>
-  <si>
-    <t>-0,3600</t>
-  </si>
-  <si>
-    <t>-0,1870</t>
-  </si>
-  <si>
-    <t>-0,6080</t>
-  </si>
-  <si>
-    <t>-0,4690</t>
-  </si>
-  <si>
-    <t>-0,5890</t>
-  </si>
-  <si>
-    <t>-0,4480</t>
-  </si>
-  <si>
-    <t>-0,2570</t>
-  </si>
-  <si>
-    <t>-0,4530</t>
-  </si>
-  <si>
-    <t>-0,5310</t>
-  </si>
-  <si>
-    <t>-0,3980</t>
-  </si>
-  <si>
-    <t>-0,5210</t>
-  </si>
-  <si>
-    <t>-0,6250</t>
-  </si>
-  <si>
-    <t>-0,5710</t>
-  </si>
-  <si>
-    <t>-0,5750</t>
-  </si>
-  <si>
-    <t>-0,5200</t>
-  </si>
-  <si>
-    <t>-0,2920</t>
-  </si>
-  <si>
-    <t>-0,2000</t>
-  </si>
-  <si>
-    <t>-0,1830</t>
-  </si>
-  <si>
-    <t>-0,1790</t>
-  </si>
-  <si>
-    <t>-0,4580</t>
-  </si>
-  <si>
-    <t>-0,3800</t>
-  </si>
-  <si>
-    <t>-0,1910</t>
-  </si>
-  <si>
-    <t>-0,3430</t>
-  </si>
-  <si>
-    <t>0,0140</t>
-  </si>
-  <si>
-    <t>0,1590</t>
-  </si>
-  <si>
-    <t>0,5470</t>
-  </si>
-  <si>
-    <t>0,9350</t>
-  </si>
-  <si>
-    <t>0,8250</t>
-  </si>
-  <si>
     <t>2023-09</t>
   </si>
   <si>
@@ -686,14 +423,17 @@
     <t>Cpi</t>
   </si>
   <si>
-    <t>Colonna2</t>
+    <t>Bund</t>
+  </si>
+  <si>
+    <t>Dates</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -709,16 +449,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -726,14 +484,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1051,8 +826,8 @@
   <sheetPr codeName="Foglio1"/>
   <dimension ref="A1:B122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B120" sqref="B120"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1065,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>214</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -2046,7 +1821,7 @@
   <sheetPr codeName="Foglio3"/>
   <dimension ref="A1:B122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -2060,7 +1835,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>211</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -3037,6 +2812,1001 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D743975D-5617-4914-BD72-5ED7D8F77E87}">
+  <dimension ref="A1:I122"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>41518</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>41548</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1.679</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>41579</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>41609</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1.9410000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>41640</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1.659</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>41671</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1.627</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>41699</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>41730</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>41760</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1.357</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>41791</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1.2509999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>41821</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>41852</v>
+      </c>
+      <c r="B13" s="4">
+        <v>0.88800000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>41883</v>
+      </c>
+      <c r="B14" s="3">
+        <v>0.94599999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>41913</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.84099999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>41944</v>
+      </c>
+      <c r="B16" s="3">
+        <v>0.70199999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>41974</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>42005</v>
+      </c>
+      <c r="B18" s="3">
+        <v>0.313</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>42036</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>42064</v>
+      </c>
+      <c r="B20" s="3">
+        <v>0.185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>42095</v>
+      </c>
+      <c r="B21" s="4">
+        <v>0.36399999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>42125</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0.48599999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>42156</v>
+      </c>
+      <c r="B23" s="4">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>42186</v>
+      </c>
+      <c r="B24" s="3">
+        <v>0.64800000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>42217</v>
+      </c>
+      <c r="B25" s="4">
+        <v>0.79500000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>42248</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>42278</v>
+      </c>
+      <c r="B27" s="4">
+        <v>0.52300000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>42309</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.47549999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>42339</v>
+      </c>
+      <c r="B29" s="4">
+        <v>0.63460000000000005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>42370</v>
+      </c>
+      <c r="B30" s="3">
+        <v>0.33400000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>42401</v>
+      </c>
+      <c r="B31" s="4">
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>42430</v>
+      </c>
+      <c r="B32" s="3">
+        <v>0.156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>42461</v>
+      </c>
+      <c r="B33" s="4">
+        <v>0.28199999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>42491</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0.14699999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>42522</v>
+      </c>
+      <c r="B35" s="4">
+        <v>-0.12659999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>42552</v>
+      </c>
+      <c r="B36" s="3">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>42583</v>
+      </c>
+      <c r="B37" s="4">
+        <v>-6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>42614</v>
+      </c>
+      <c r="B38" s="3">
+        <v>-0.12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>42644</v>
+      </c>
+      <c r="B39" s="4">
+        <v>0.16300000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>42675</v>
+      </c>
+      <c r="B40" s="3">
+        <v>0.27400000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>42705</v>
+      </c>
+      <c r="B41" s="4">
+        <v>0.20799999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>42736</v>
+      </c>
+      <c r="B42" s="3">
+        <v>0.437</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>42767</v>
+      </c>
+      <c r="B43" s="4">
+        <v>0.20799999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>42795</v>
+      </c>
+      <c r="B44" s="3">
+        <v>0.33100000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>42826</v>
+      </c>
+      <c r="B45" s="4">
+        <v>0.32400000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>42856</v>
+      </c>
+      <c r="B46" s="3">
+        <v>0.311</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>42887</v>
+      </c>
+      <c r="B47" s="4">
+        <v>0.46500000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>42917</v>
+      </c>
+      <c r="B48" s="3">
+        <v>0.53300000000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>42948</v>
+      </c>
+      <c r="B49" s="4">
+        <v>0.35899999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>42979</v>
+      </c>
+      <c r="B50" s="3">
+        <v>0.46400000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>43009</v>
+      </c>
+      <c r="B51" s="4">
+        <v>0.36399999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>43040</v>
+      </c>
+      <c r="B52" s="3">
+        <v>0.36699999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>43070</v>
+      </c>
+      <c r="B53" s="4">
+        <v>0.42699999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>43101</v>
+      </c>
+      <c r="B54" s="3">
+        <v>0.69699999999999995</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>43132</v>
+      </c>
+      <c r="B55" s="4">
+        <v>0.65400000000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>43160</v>
+      </c>
+      <c r="B56" s="3">
+        <v>0.49299999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>43191</v>
+      </c>
+      <c r="B57" s="4">
+        <v>0.56200000000000006</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>43221</v>
+      </c>
+      <c r="B58" s="3">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>43252</v>
+      </c>
+      <c r="B59" s="4">
+        <v>0.30299999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>43282</v>
+      </c>
+      <c r="B60" s="3">
+        <v>0.44500000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>43313</v>
+      </c>
+      <c r="B61" s="4">
+        <v>0.33100000000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>43344</v>
+      </c>
+      <c r="B62" s="3">
+        <v>0.47199999999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>43374</v>
+      </c>
+      <c r="B63" s="4">
+        <v>0.38600000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>43405</v>
+      </c>
+      <c r="B64" s="3">
+        <v>0.315</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>43435</v>
+      </c>
+      <c r="B65" s="4">
+        <v>0.246</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>43466</v>
+      </c>
+      <c r="B66" s="3">
+        <v>0.14899999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>43497</v>
+      </c>
+      <c r="B67" s="4">
+        <v>0.182</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>43525</v>
+      </c>
+      <c r="B68" s="3">
+        <v>-7.0999999999999994E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>43556</v>
+      </c>
+      <c r="B69" s="4">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>43586</v>
+      </c>
+      <c r="B70" s="3">
+        <v>-0.20300000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>43617</v>
+      </c>
+      <c r="B71" s="4">
+        <v>-0.32800000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>43647</v>
+      </c>
+      <c r="B72" s="3">
+        <v>-0.442</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>43678</v>
+      </c>
+      <c r="B73" s="4">
+        <v>-0.70299999999999996</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>43709</v>
+      </c>
+      <c r="B74" s="3">
+        <v>-0.57199999999999995</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>43739</v>
+      </c>
+      <c r="B75" s="4">
+        <v>-0.40300000000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>43770</v>
+      </c>
+      <c r="B76" s="3">
+        <v>-0.36</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>43800</v>
+      </c>
+      <c r="B77" s="4">
+        <v>-0.187</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>43831</v>
+      </c>
+      <c r="B78" s="3">
+        <v>-0.434</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>43862</v>
+      </c>
+      <c r="B79" s="4">
+        <v>-0.60799999999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>43891</v>
+      </c>
+      <c r="B80" s="3">
+        <v>-0.46899999999999997</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>43922</v>
+      </c>
+      <c r="B81" s="4">
+        <v>-0.58899999999999997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B82" s="3">
+        <v>-0.44800000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B83" s="4">
+        <v>-0.45300000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B84" s="3">
+        <v>-0.53100000000000003</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>44044</v>
+      </c>
+      <c r="B85" s="4">
+        <v>-0.39800000000000002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B86" s="3">
+        <v>-0.52100000000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>44105</v>
+      </c>
+      <c r="B87" s="4">
+        <v>-0.625</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>44136</v>
+      </c>
+      <c r="B88" s="3">
+        <v>-0.57099999999999995</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B89" s="4">
+        <v>-0.57499999999999996</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>44197</v>
+      </c>
+      <c r="B90" s="3">
+        <v>-0.52</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>44228</v>
+      </c>
+      <c r="B91" s="4">
+        <v>-0.25700000000000001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>44256</v>
+      </c>
+      <c r="B92" s="3">
+        <v>-0.29199999999999998</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>44287</v>
+      </c>
+      <c r="B93" s="4">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>44317</v>
+      </c>
+      <c r="B94" s="3">
+        <v>-0.183</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>44348</v>
+      </c>
+      <c r="B95" s="4">
+        <v>-0.20300000000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>44378</v>
+      </c>
+      <c r="B96" s="3">
+        <v>-0.45800000000000002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>44409</v>
+      </c>
+      <c r="B97" s="4">
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>44440</v>
+      </c>
+      <c r="B98" s="3">
+        <v>-0.191</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>44470</v>
+      </c>
+      <c r="B99" s="4">
+        <v>-9.4E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>44501</v>
+      </c>
+      <c r="B100" s="3">
+        <v>-0.34300000000000003</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>44531</v>
+      </c>
+      <c r="B101" s="4">
+        <v>-0.17899999999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>44562</v>
+      </c>
+      <c r="B102" s="3">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>44593</v>
+      </c>
+      <c r="B103" s="4">
+        <v>0.159</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B104" s="3">
+        <v>0.54700000000000004</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>44652</v>
+      </c>
+      <c r="B105" s="4">
+        <v>0.93500000000000005</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>44682</v>
+      </c>
+      <c r="B106" s="3">
+        <v>1.127</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>44713</v>
+      </c>
+      <c r="B107" s="4">
+        <v>1.3680000000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>44743</v>
+      </c>
+      <c r="B108" s="3">
+        <v>0.82499999999999996</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>44774</v>
+      </c>
+      <c r="B109" s="4">
+        <v>1.536</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>44805</v>
+      </c>
+      <c r="B110" s="3">
+        <v>2.109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>44835</v>
+      </c>
+      <c r="B111" s="4">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>44866</v>
+      </c>
+      <c r="B112" s="3">
+        <v>1.944</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>44896</v>
+      </c>
+      <c r="B113" s="4">
+        <v>2.5630000000000002</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>44927</v>
+      </c>
+      <c r="B114" s="3">
+        <v>2.2799999999999998</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>44958</v>
+      </c>
+      <c r="B115" s="4">
+        <v>2.6429999999999998</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>44986</v>
+      </c>
+      <c r="B116" s="3">
+        <v>2.3010000000000002</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>45017</v>
+      </c>
+      <c r="B117" s="4">
+        <v>2.3220000000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>45047</v>
+      </c>
+      <c r="B118" s="3">
+        <v>2.2719999999999998</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>45078</v>
+      </c>
+      <c r="B119" s="4">
+        <v>2.391</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>45108</v>
+      </c>
+      <c r="B120" s="3">
+        <v>2.4649999999999999</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>45139</v>
+      </c>
+      <c r="B121" s="4">
+        <v>2.4710000000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>45170</v>
+      </c>
+      <c r="B122" s="3">
+        <v>2.8380000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F56B6E20-6A05-4B47-A490-D4B3D591BA14}">
   <sheetPr codeName="Foglio4"/>
   <dimension ref="A1:B122"/>
@@ -3049,15 +3819,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>212</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
-        <v>213</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>209</v>
+        <v>121</v>
       </c>
       <c r="B2">
         <v>96</v>
@@ -3065,7 +3835,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>208</v>
+        <v>120</v>
       </c>
       <c r="B3">
         <v>95.2</v>
@@ -3073,7 +3843,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>207</v>
+        <v>119</v>
       </c>
       <c r="B4">
         <v>97.8</v>
@@ -3081,7 +3851,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>206</v>
+        <v>118</v>
       </c>
       <c r="B5">
         <v>97.2</v>
@@ -3089,7 +3859,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>205</v>
+        <v>117</v>
       </c>
       <c r="B6">
         <v>98.9</v>
@@ -3097,7 +3867,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>204</v>
+        <v>116</v>
       </c>
       <c r="B7">
         <v>97.4</v>
@@ -3105,7 +3875,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>203</v>
+        <v>115</v>
       </c>
       <c r="B8">
         <v>97.3</v>
@@ -3113,7 +3883,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>202</v>
+        <v>114</v>
       </c>
       <c r="B9">
         <v>97</v>
@@ -3121,7 +3891,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>201</v>
+        <v>113</v>
       </c>
       <c r="B10">
         <v>95.7</v>
@@ -3129,7 +3899,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>200</v>
+        <v>112</v>
       </c>
       <c r="B11">
         <v>97.4</v>
@@ -3137,7 +3907,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>199</v>
+        <v>111</v>
       </c>
       <c r="B12">
         <v>98.5</v>
@@ -3145,7 +3915,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>198</v>
+        <v>110</v>
       </c>
       <c r="B13">
         <v>95.6</v>
@@ -3153,7 +3923,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>197</v>
+        <v>109</v>
       </c>
       <c r="B14">
         <v>97.7</v>
@@ -3161,7 +3931,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>196</v>
+        <v>108</v>
       </c>
       <c r="B15">
         <v>98.2</v>
@@ -3169,7 +3939,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>195</v>
+        <v>107</v>
       </c>
       <c r="B16">
         <v>98.5</v>
@@ -3177,7 +3947,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>194</v>
+        <v>106</v>
       </c>
       <c r="B17">
         <v>99.5</v>
@@ -3185,7 +3955,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>193</v>
+        <v>105</v>
       </c>
       <c r="B18">
         <v>99</v>
@@ -3193,7 +3963,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>192</v>
+        <v>104</v>
       </c>
       <c r="B19">
         <v>99</v>
@@ -3201,7 +3971,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>191</v>
+        <v>103</v>
       </c>
       <c r="B20">
         <v>99.1</v>
@@ -3209,7 +3979,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>190</v>
+        <v>102</v>
       </c>
       <c r="B21">
         <v>99.9</v>
@@ -3217,7 +3987,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>189</v>
+        <v>101</v>
       </c>
       <c r="B22">
         <v>100.8</v>
@@ -3225,7 +3995,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>188</v>
+        <v>100</v>
       </c>
       <c r="B23">
         <v>100</v>
@@ -3233,7 +4003,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>187</v>
+        <v>99</v>
       </c>
       <c r="B24">
         <v>101.8</v>
@@ -3241,7 +4011,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>186</v>
+        <v>98</v>
       </c>
       <c r="B25">
         <v>98.7</v>
@@ -3249,7 +4019,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>185</v>
+        <v>97</v>
       </c>
       <c r="B26">
         <v>98.8</v>
@@ -3257,7 +4027,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>184</v>
+        <v>96</v>
       </c>
       <c r="B27">
         <v>100.7</v>
@@ -3265,7 +4035,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>183</v>
+        <v>95</v>
       </c>
       <c r="B28">
         <v>98.3</v>
@@ -3273,7 +4043,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>182</v>
+        <v>94</v>
       </c>
       <c r="B29">
         <v>100.2</v>
@@ -3281,7 +4051,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>181</v>
+        <v>93</v>
       </c>
       <c r="B30">
         <v>100.2</v>
@@ -3289,7 +4059,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>92</v>
       </c>
       <c r="B31">
         <v>100.4</v>
@@ -3297,7 +4067,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>179</v>
+        <v>91</v>
       </c>
       <c r="B32">
         <v>99.5</v>
@@ -3305,7 +4075,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>178</v>
+        <v>90</v>
       </c>
       <c r="B33">
         <v>99.6</v>
@@ -3313,7 +4083,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>177</v>
+        <v>89</v>
       </c>
       <c r="B34">
         <v>99.4</v>
@@ -3321,7 +4091,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>176</v>
+        <v>88</v>
       </c>
       <c r="B35">
         <v>99.3</v>
@@ -3329,7 +4099,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>175</v>
+        <v>87</v>
       </c>
       <c r="B36">
         <v>98.5</v>
@@ -3337,7 +4107,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>174</v>
+        <v>86</v>
       </c>
       <c r="B37">
         <v>100.5</v>
@@ -3345,7 +4115,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>173</v>
+        <v>85</v>
       </c>
       <c r="B38">
         <v>100.6</v>
@@ -3353,7 +4123,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>172</v>
+        <v>84</v>
       </c>
       <c r="B39">
         <v>101.4</v>
@@ -3361,7 +4131,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>171</v>
+        <v>83</v>
       </c>
       <c r="B40">
         <v>101.6</v>
@@ -3369,7 +4139,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>170</v>
+        <v>82</v>
       </c>
       <c r="B41">
         <v>99.6</v>
@@ -3377,7 +4147,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>169</v>
+        <v>81</v>
       </c>
       <c r="B42">
         <v>101.2</v>
@@ -3385,7 +4155,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="B43">
         <v>103.6</v>
@@ -3393,7 +4163,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="B44">
         <v>103.7</v>
@@ -3401,7 +4171,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="B45">
         <v>105.4</v>
@@ -3409,7 +4179,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>165</v>
+        <v>77</v>
       </c>
       <c r="B46">
         <v>105.6</v>
@@ -3417,7 +4187,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>164</v>
+        <v>76</v>
       </c>
       <c r="B47">
         <v>106</v>
@@ -3425,7 +4195,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>163</v>
+        <v>75</v>
       </c>
       <c r="B48">
         <v>105.9</v>
@@ -3433,7 +4203,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>162</v>
+        <v>74</v>
       </c>
       <c r="B49">
         <v>108.4</v>
@@ -3441,7 +4211,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>161</v>
+        <v>73</v>
       </c>
       <c r="B50">
         <v>107.9</v>
@@ -3449,7 +4219,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>160</v>
+        <v>72</v>
       </c>
       <c r="B51">
         <v>106.3</v>
@@ -3457,7 +4227,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>159</v>
+        <v>71</v>
       </c>
       <c r="B52">
         <v>110.1</v>
@@ -3465,7 +4235,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>158</v>
+        <v>70</v>
       </c>
       <c r="B53">
         <v>109.5</v>
@@ -3473,7 +4243,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>157</v>
+        <v>69</v>
       </c>
       <c r="B54">
         <v>108.4</v>
@@ -3481,7 +4251,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>156</v>
+        <v>68</v>
       </c>
       <c r="B55">
         <v>106.7</v>
@@ -3489,7 +4259,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>155</v>
+        <v>67</v>
       </c>
       <c r="B56">
         <v>108.4</v>
@@ -3497,7 +4267,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>154</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>108.7</v>
@@ -3505,7 +4275,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>153</v>
+        <v>65</v>
       </c>
       <c r="B58">
         <v>109.6</v>
@@ -3513,7 +4283,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>152</v>
+        <v>64</v>
       </c>
       <c r="B59">
         <v>109.4</v>
@@ -3521,7 +4291,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>151</v>
+        <v>63</v>
       </c>
       <c r="B60">
         <v>107.9</v>
@@ -3529,7 +4299,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>150</v>
+        <v>62</v>
       </c>
       <c r="B61">
         <v>108.9</v>
@@ -3537,7 +4307,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="B62">
         <v>107.5</v>
@@ -3545,7 +4315,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>148</v>
+        <v>60</v>
       </c>
       <c r="B63">
         <v>108.1</v>
@@ -3553,7 +4323,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>147</v>
+        <v>59</v>
       </c>
       <c r="B64">
         <v>106</v>
@@ -3561,7 +4331,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>146</v>
+        <v>58</v>
       </c>
       <c r="B65">
         <v>108.9</v>
@@ -3569,7 +4339,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>145</v>
+        <v>57</v>
       </c>
       <c r="B66">
         <v>109.5</v>
@@ -3577,7 +4347,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>144</v>
+        <v>56</v>
       </c>
       <c r="B67">
         <v>108.4</v>
@@ -3585,7 +4355,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="B68">
         <v>109.6</v>
@@ -3593,7 +4363,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>142</v>
+        <v>54</v>
       </c>
       <c r="B69">
         <v>108.6</v>
@@ -3601,7 +4371,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>141</v>
+        <v>53</v>
       </c>
       <c r="B70">
         <v>107.5</v>
@@ -3609,7 +4379,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>140</v>
+        <v>52</v>
       </c>
       <c r="B71">
         <v>107.2</v>
@@ -3617,7 +4387,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>139</v>
+        <v>51</v>
       </c>
       <c r="B72">
         <v>106.3</v>
@@ -3625,7 +4395,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>138</v>
+        <v>50</v>
       </c>
       <c r="B73">
         <v>107.7</v>
@@ -3633,7 +4403,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>137</v>
+        <v>49</v>
       </c>
       <c r="B74">
         <v>106.8</v>
@@ -3641,7 +4411,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>136</v>
+        <v>48</v>
       </c>
       <c r="B75">
         <v>106.2</v>
@@ -3649,7 +4419,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>135</v>
+        <v>47</v>
       </c>
       <c r="B76">
         <v>105.4</v>
@@ -3657,7 +4427,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="B77">
         <v>105.3</v>
@@ -3665,7 +4435,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>133</v>
+        <v>45</v>
       </c>
       <c r="B78">
         <v>106.8</v>
@@ -3673,7 +4443,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>132</v>
+        <v>44</v>
       </c>
       <c r="B79">
         <v>107.1</v>
@@ -3681,7 +4451,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="B80">
         <v>97.2</v>
@@ -3689,7 +4459,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>130</v>
+        <v>42</v>
       </c>
       <c r="B81">
         <v>73.3</v>
@@ -3697,7 +4467,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="B82">
         <v>81.099999999999994</v>
@@ -3705,7 +4475,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="B83">
         <v>92</v>
@@ -3713,7 +4483,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>127</v>
+        <v>39</v>
       </c>
       <c r="B84">
         <v>96.5</v>
@@ -3721,7 +4491,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>126</v>
+        <v>38</v>
       </c>
       <c r="B85">
         <v>97</v>
@@ -3729,7 +4499,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>125</v>
+        <v>37</v>
       </c>
       <c r="B86">
         <v>99</v>
@@ -3737,7 +4507,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>124</v>
+        <v>36</v>
       </c>
       <c r="B87">
         <v>102.6</v>
@@ -3745,7 +4515,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>123</v>
+        <v>35</v>
       </c>
       <c r="B88">
         <v>102.9</v>
@@ -3753,7 +4523,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>122</v>
+        <v>34</v>
       </c>
       <c r="B89">
         <v>104.8</v>
@@ -3761,7 +4531,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>121</v>
+        <v>33</v>
       </c>
       <c r="B90">
         <v>102.5</v>
@@ -3769,7 +4539,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>120</v>
+        <v>32</v>
       </c>
       <c r="B91">
         <v>101.4</v>
@@ -3777,7 +4547,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="B92">
         <v>107</v>
@@ -3785,7 +4555,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>118</v>
+        <v>30</v>
       </c>
       <c r="B93">
         <v>104.3</v>
@@ -3793,7 +4563,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>117</v>
+        <v>29</v>
       </c>
       <c r="B94">
         <v>105.1</v>
@@ -3801,7 +4571,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>116</v>
+        <v>28</v>
       </c>
       <c r="B95">
         <v>105.1</v>
@@ -3809,7 +4579,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>115</v>
+        <v>27</v>
       </c>
       <c r="B96">
         <v>107.3</v>
@@ -3817,7 +4587,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>114</v>
+        <v>26</v>
       </c>
       <c r="B97">
         <v>102.3</v>
@@ -3825,7 +4595,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>113</v>
+        <v>25</v>
       </c>
       <c r="B98">
         <v>103.1</v>
@@ -3833,7 +4603,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="B99">
         <v>106.1</v>
@@ -3841,7 +4611,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="B100">
         <v>110.8</v>
@@ -3849,7 +4619,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>110</v>
+        <v>22</v>
       </c>
       <c r="B101">
         <v>113.2</v>
@@ -3857,7 +4627,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="B102">
         <v>116.5</v>
@@ -3865,7 +4635,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="B103">
         <v>116.4</v>
@@ -3873,7 +4643,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>107</v>
+        <v>19</v>
       </c>
       <c r="B104">
         <v>113.7</v>
@@ -3881,7 +4651,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="B105">
         <v>115.6</v>
@@ -3889,7 +4659,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="B106">
         <v>119.7</v>
@@ -3897,7 +4667,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>104</v>
+        <v>16</v>
       </c>
       <c r="B107">
         <v>123.2</v>
@@ -3905,7 +4675,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="B108">
         <v>122.4</v>
@@ -3913,7 +4683,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="B109">
         <v>124.3</v>
@@ -3921,7 +4691,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>101</v>
+        <v>13</v>
       </c>
       <c r="B110">
         <v>125.6</v>
@@ -3929,7 +4699,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="B111">
         <v>125.5</v>
@@ -3937,7 +4707,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="B112">
         <v>128.30000000000001</v>
@@ -3945,7 +4715,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="B113">
         <v>126</v>
@@ -3953,7 +4723,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="B114">
         <v>126.6</v>
@@ -3961,7 +4731,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="B115">
         <v>128.69999999999999</v>
@@ -3969,7 +4739,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="B116">
         <v>125.7</v>
@@ -3977,7 +4747,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
       <c r="B117">
         <v>125.4</v>
@@ -3985,7 +4755,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="B118">
         <v>129.30000000000001</v>
@@ -3993,7 +4763,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="B119">
         <v>127.2</v>
@@ -4001,7 +4771,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="B120">
         <v>125.9</v>
@@ -4009,7 +4779,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="B121">
         <v>125.2</v>
@@ -4017,7 +4787,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="B122">
         <v>123.6</v>
@@ -4028,7 +4798,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E59D01-273D-4ADA-BA1B-7177F997BA7A}">
   <sheetPr codeName="Foglio5"/>
   <dimension ref="A1:H123"/>
@@ -4048,7 +4818,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>210</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
